--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\F17\CSC573\proj1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\F17\CSC573\proj1\Peer2Peer-DI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -239,19 +239,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77249646199999999</c:v>
+                  <c:v>0.694535732269287</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.77388000499999998</c:v>
+                  <c:v>0.71490883827209395</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.76133298900000002</c:v>
+                  <c:v>0.71773099899291903</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.77550387382507302</c:v>
+                  <c:v>0.70170712471008301</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4921507835388099</c:v>
+                  <c:v>0.72078895568847601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -282,6 +282,89 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Peer</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -347,6 +430,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cumulative</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Download Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -561,22 +704,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.638200283050537</c:v>
+                  <c:v>0.57949566841125399</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61812925299999999</c:v>
+                  <c:v>0.57868528366088801</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.69132780999999999</c:v>
+                  <c:v>0.60640454292297297</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64817118600000001</c:v>
+                  <c:v>0.59662842750549305</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.64585852622985795</c:v>
+                  <c:v>0.60855817794799805</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92682003974914495</c:v>
+                  <c:v>0.61570644399999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -607,6 +750,75 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Peer</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -655,7 +867,7 @@
         <c:axId val="472625248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.6"/>
+          <c:max val="0.8"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -673,6 +885,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cumulative Download</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Time (sec)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2223,7 +2495,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2253,19 +2525,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.77249646199999999</v>
+        <v>0.694535732269287</v>
       </c>
       <c r="C2">
-        <v>0.77388000499999998</v>
+        <v>0.71490883827209395</v>
       </c>
       <c r="D2">
-        <v>0.76133298900000002</v>
+        <v>0.71773099899291903</v>
       </c>
       <c r="E2">
-        <v>0.77550387382507302</v>
+        <v>0.70170712471008301</v>
       </c>
       <c r="F2">
-        <v>1.4921507835388099</v>
+        <v>0.72078895568847601</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2290,22 +2562,22 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.638200283050537</v>
+        <v>0.57949566841125399</v>
       </c>
       <c r="B9">
-        <v>0.61812925299999999</v>
+        <v>0.57868528366088801</v>
       </c>
       <c r="C9">
-        <v>0.69132780999999999</v>
+        <v>0.60640454292297297</v>
       </c>
       <c r="D9">
-        <v>0.64817118600000001</v>
+        <v>0.59662842750549305</v>
       </c>
       <c r="E9">
-        <v>0.64585852622985795</v>
+        <v>0.60855817794799805</v>
       </c>
       <c r="F9">
-        <v>0.92682003974914495</v>
+        <v>0.61570644399999996</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -218,2518 +218,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Task 2: P2P File Distribution - No RNG</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>P0 (10)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$I$2:$I$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$J$2:$J$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>1.9721984863281198E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.03876590728759E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.22244358062744E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.46076679229736E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7966747283935498E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.2098541259765601E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5581827163696199E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.9723396301269497E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.0556898117065402E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.8209648132324205E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.8518152236938393E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.9306831359863198E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.1053466796875</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.10866641998291</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.11192202568054101</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.118051767349243</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.12019014358520499</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.123499155044555</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.12634110450744601</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.13944363594055101</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.15716671943664501</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.164514780044555</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.179605722427368</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.197692155838012</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.21095871925354001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.21394729614257799</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.23868250846862701</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.240175485610961</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.24195957183837799</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.24362683296203599</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.25016427040100098</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.26412177085876398</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.27746653556823703</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.28775525093078602</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.30271267890930098</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.3138427734375</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.31871223449706998</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.32681107521057101</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.335869550704956</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.337485551834106</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.342197895050048</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.36481881141662598</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.37638139724731401</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.38771319389343201</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.40054965019226002</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.41798782348632801</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.42288136482238697</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.43420338630676197</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.45166945457458402</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.471011161804199</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-113C-428C-8F8B-04DE065D3A90}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>P1 (10)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$I$2:$I$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$K$2:$K$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>4.8906803131103498E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.9261121749877898E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.6733388900756801E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.9187898635864202E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.3469181060791002E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.0301055908203097E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.7204694747924805E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.8932027816772405E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.113144159317016</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.12156867980956999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.12695550918579099</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.14310503005981401</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.14748883247375399</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.14859652519225999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.16698789596557601</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.19524550437927199</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.20627760887145899</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.217858076095581</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.232754230499267</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.23595762252807601</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.24862027168273901</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.26355314254760698</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.27740716934204102</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.293163061141967</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.306225776672363</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.311295986175537</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.312785863876342</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.31536912918090798</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.31924796104431102</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.32566595077514598</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.33870053291320801</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.34580802917480402</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.36341404914855902</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.37567925453186002</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.393102407455444</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.40889143943786599</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.41061496734619102</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.44129061698913502</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.44684600830078097</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.47196078300476002</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.48690128326415999</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.51247406005859297</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.51713204383850098</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.52358031272888095</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.53119087219238204</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.53944039344787598</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.54288959503173795</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.54609203338623002</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.54772353172302202</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.54905438423156705</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-113C-428C-8F8B-04DE065D3A90}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>P2 (10)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$I$2:$I$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$2:$L$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>4.6250820159912101E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.42109394073486E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0263433456420898E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.65948677062988E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.5803546905517502E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0776948928833001E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.7506780624389607E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.6830139160156194E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.2599391937255804E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.102451801300048</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.110783576965332</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.14469861984252899</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.16368150711059501</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.16816735267639099</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.17416405677795399</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.181711435317993</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.20218825340270899</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.22613286972045801</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.237281799316406</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.248836994171142</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.26468396186828602</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.27772617340087802</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.30428695678710899</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.307782173156738</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.32527804374694802</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.34752702713012601</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.35764336585998502</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.36625885963439903</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.36903429031371998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.379692792892456</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.38991236686706499</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.40870356559753401</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.41472339630126898</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.42628049850463801</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.45436978340148898</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.47937750816345198</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.50010156631469704</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.50876522064208896</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.58157491683959905</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.59315299987792902</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.59559917449951105</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.60793185234069802</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.61440181732177701</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.62626814842224099</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.64725375175475997</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.67039680480956998</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.67919659614562899</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.69215083122253396</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.70492672920226995</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.70662212371826105</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-113C-428C-8F8B-04DE065D3A90}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>P3 (10)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$I$2:$I$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$M$2:$M$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>4.3292045593261701E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.6817092895507799E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0868291854858398E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.7511825561523403E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.9031257629394497E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.5125465393066406E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.0513000488281194E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.77118110656738E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.3139886856079102E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.103586435317993</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.118953466415405</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.13595342636108301</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.15151739120483301</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.162458181381225</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.165774345397949</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.17620611190795801</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.19810605049133301</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.22307491302490201</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.23143529891967701</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.25240278244018499</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.26763272285461398</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.285960912704467</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.29287338256835899</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.294483661651611</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.30478143692016602</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.32697248458862299</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.33581876754760698</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.35554671287536599</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.37951540946960399</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.39714145660400302</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.41256403923034601</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.44418501853942799</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.46690058708190901</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.48824882507324202</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.49261307716369601</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.509724140167236</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.51711893081664995</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.53508281707763605</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.55864620208740201</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.57156229019164995</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.58660197257995605</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.59794926643371504</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.61257076263427701</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.614568471908569</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.62867164611816395</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.633087158203125</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.66195178031921298</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.66805839538574197</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.69098329544067305</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.70115232467651301</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-113C-428C-8F8B-04DE065D3A90}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>P4 (10)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$I$2:$I$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$N$2:$N$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>5.1004886627197196E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5844106674194301E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.53748893737792E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.7809371948242097E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.72564697265625E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.4961681365966797E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.7255964279174805E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.4526538848876898E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.9870929718017495E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.10293006896972599</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.109661102294921</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.11328697204589799</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.124363660812377</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.12576889991760201</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.131353139877319</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.134678840637207</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.138248682022094</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.15636348724365201</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.15916776657104401</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.16252660751342701</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.167304277420043</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.178561210632324</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.183910131454467</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.19036364555358801</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.19275784492492601</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.23264646530151301</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.24107336997985801</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.25634884834289501</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.25736880302429199</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.26044273376464799</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.274585962295532</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.28283524513244601</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.28586483001708901</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.28871250152587802</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.29208707809448198</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.30002593994140597</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.30550527572631803</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.327794790267944</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.34498715400695801</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.35203337669372498</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.36378812789916898</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.375391244888305</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.40081787109375</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.41203117370605402</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.42376875877380299</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.43416643142700101</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.454140424728393</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.46728014945983798</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.48350262641906699</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.484768867492675</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-113C-428C-8F8B-04DE065D3A90}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$O$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>P5 (10)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$I$2:$I$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$O$2:$O$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>3.7686824798583902E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3677597045898399E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0374536514282199E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.7753105163574198E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.6682357788085903E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.1111688613891602E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.27610492706298E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.7843418121337793E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.5802307128906194E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.111990451812744</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.12916445732116699</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.15351533889770499</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.16584444046020499</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.170041799545288</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.172766923904418</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.175777673721313</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.17856335639953599</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.19427514076232899</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.199440002441406</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.20536446571350001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.20808434486389099</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.21871709823608301</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.22209358215332001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.22771906852722101</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.23261785507202101</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.245347499847412</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.25632095336914001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.26524972915649397</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.29377436637878401</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.31962227821350098</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.32130384445190402</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.32340216636657698</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.32459378242492598</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.32611346244812001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.32764816284179599</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.34486055374145502</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.34854149818420399</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.35417294502258301</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.35909008979797302</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.38000202178955</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.381960868835449</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.38389897346496499</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.390484809875488</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.40759396553039501</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.42572379112243602</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.437784433364868</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.45004510879516602</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.46341800689697199</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.47742915153503401</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.50624871253967196</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-113C-428C-8F8B-04DE065D3A90}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="482667536"/>
-        <c:axId val="482665896"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="482667536"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Files Downloaded</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="482665896"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="482665896"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Cumalative</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Download Time (sec)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="482667536"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>Task</a:t>
             </a:r>
             <a:r>
@@ -5017,6 +2505,7 @@
         <c:axId val="583003144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5207,7 +2696,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7633,6 +5122,2519 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="478222152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Task 2: P2P File Distribution - No RNG</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P0 (10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1.9721984863281198E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.03876590728759E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.22244358062744E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.46076679229736E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7966747283935498E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2098541259765601E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5581827163696199E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9723396301269497E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0556898117065402E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.8209648132324205E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.8518152236938393E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.9306831359863198E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1053466796875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.10866641998291</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.11192202568054101</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.118051767349243</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.12019014358520499</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.123499155044555</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.12634110450744601</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.13944363594055101</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.15716671943664501</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.164514780044555</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.179605722427368</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.197692155838012</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.21095871925354001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.21394729614257799</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.23868250846862701</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.240175485610961</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.24195957183837799</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.24362683296203599</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.25016427040100098</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.26412177085876398</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.27746653556823703</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.28775525093078602</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.30271267890930098</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.3138427734375</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.31871223449706998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.32681107521057101</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.335869550704956</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.337485551834106</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.342197895050048</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.36481881141662598</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.37638139724731401</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.38771319389343201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.40054965019226002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.41798782348632801</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.42288136482238697</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.43420338630676197</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.45166945457458402</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.471011161804199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-113C-428C-8F8B-04DE065D3A90}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P1 (10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>4.8906803131103498E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9261121749877898E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6733388900756801E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9187898635864202E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3469181060791002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0301055908203097E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.7204694747924805E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.8932027816772405E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.113144159317016</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12156867980956999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.12695550918579099</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.14310503005981401</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14748883247375399</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14859652519225999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.16698789596557601</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.19524550437927199</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.20627760887145899</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.217858076095581</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.232754230499267</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.23595762252807601</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.24862027168273901</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.26355314254760698</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.27740716934204102</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.293163061141967</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.306225776672363</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.311295986175537</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.312785863876342</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.31536912918090798</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.31924796104431102</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.32566595077514598</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.33870053291320801</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.34580802917480402</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.36341404914855902</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.37567925453186002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.393102407455444</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.40889143943786599</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.41061496734619102</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.44129061698913502</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.44684600830078097</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.47196078300476002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.48690128326415999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.51247406005859297</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.51713204383850098</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.52358031272888095</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.53119087219238204</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.53944039344787598</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.54288959503173795</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.54609203338623002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.54772353172302202</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.54905438423156705</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-113C-428C-8F8B-04DE065D3A90}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P2 (10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>4.6250820159912101E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.42109394073486E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0263433456420898E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.65948677062988E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5803546905517502E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0776948928833001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.7506780624389607E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.6830139160156194E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.2599391937255804E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.102451801300048</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.110783576965332</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.14469861984252899</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16368150711059501</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.16816735267639099</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.17416405677795399</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.181711435317993</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.20218825340270899</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.22613286972045801</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.237281799316406</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.248836994171142</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.26468396186828602</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.27772617340087802</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.30428695678710899</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.307782173156738</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.32527804374694802</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.34752702713012601</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.35764336585998502</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.36625885963439903</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.36903429031371998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.379692792892456</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.38991236686706499</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.40870356559753401</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.41472339630126898</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.42628049850463801</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.45436978340148898</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.47937750816345198</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.50010156631469704</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.50876522064208896</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.58157491683959905</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.59315299987792902</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.59559917449951105</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.60793185234069802</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.61440181732177701</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.62626814842224099</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.64725375175475997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.67039680480956998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.67919659614562899</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.69215083122253396</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.70492672920226995</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.70662212371826105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-113C-428C-8F8B-04DE065D3A90}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P3 (10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>4.3292045593261701E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6817092895507799E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0868291854858398E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7511825561523403E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9031257629394497E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5125465393066406E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0513000488281194E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.77118110656738E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.3139886856079102E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.103586435317993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.118953466415405</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.13595342636108301</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.15151739120483301</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.162458181381225</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.165774345397949</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.17620611190795801</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.19810605049133301</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.22307491302490201</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.23143529891967701</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.25240278244018499</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.26763272285461398</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.285960912704467</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.29287338256835899</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.294483661651611</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.30478143692016602</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.32697248458862299</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.33581876754760698</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.35554671287536599</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.37951540946960399</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.39714145660400302</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.41256403923034601</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.44418501853942799</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.46690058708190901</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.48824882507324202</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.49261307716369601</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.509724140167236</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.51711893081664995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.53508281707763605</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.55864620208740201</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.57156229019164995</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.58660197257995605</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.59794926643371504</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.61257076263427701</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.614568471908569</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.62867164611816395</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.633087158203125</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.66195178031921298</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.66805839538574197</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.69098329544067305</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.70115232467651301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-113C-428C-8F8B-04DE065D3A90}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P4 (10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>5.1004886627197196E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5844106674194301E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.53748893737792E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7809371948242097E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.72564697265625E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4961681365966797E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.7255964279174805E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.4526538848876898E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.9870929718017495E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10293006896972599</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.109661102294921</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11328697204589799</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.124363660812377</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12576889991760201</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.131353139877319</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.134678840637207</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.138248682022094</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.15636348724365201</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.15916776657104401</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.16252660751342701</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.167304277420043</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.178561210632324</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.183910131454467</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.19036364555358801</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.19275784492492601</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.23264646530151301</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.24107336997985801</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.25634884834289501</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.25736880302429199</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.26044273376464799</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.274585962295532</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.28283524513244601</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.28586483001708901</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.28871250152587802</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.29208707809448198</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.30002593994140597</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.30550527572631803</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.327794790267944</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.34498715400695801</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.35203337669372498</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.36378812789916898</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.375391244888305</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.40081787109375</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.41203117370605402</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.42376875877380299</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.43416643142700101</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.454140424728393</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.46728014945983798</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48350262641906699</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.484768867492675</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-113C-428C-8F8B-04DE065D3A90}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P5 (10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$2:$O$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>3.7686824798583902E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3677597045898399E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0374536514282199E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7753105163574198E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6682357788085903E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.1111688613891602E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.27610492706298E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.7843418121337793E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.5802307128906194E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.111990451812744</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.12916445732116699</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.15351533889770499</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16584444046020499</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.170041799545288</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.172766923904418</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.175777673721313</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17856335639953599</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.19427514076232899</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.199440002441406</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.20536446571350001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.20808434486389099</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21871709823608301</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22209358215332001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.22771906852722101</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.23261785507202101</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.245347499847412</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.25632095336914001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.26524972915649397</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.29377436637878401</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.31962227821350098</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.32130384445190402</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32340216636657698</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32459378242492598</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.32611346244812001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.32764816284179599</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.34486055374145502</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.34854149818420399</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.35417294502258301</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.35909008979797302</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.38000202178955</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.381960868835449</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.38389897346496499</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.390484809875488</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.40759396553039501</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.42572379112243602</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.437784433364868</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.45004510879516602</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.46341800689697199</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.47742915153503401</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.50624871253967196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-113C-428C-8F8B-04DE065D3A90}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="482667536"/>
+        <c:axId val="482665896"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="482667536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Files Downloaded</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="482665896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="482665896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cumalative</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Download Time (sec)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="482667536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9391,42 +9393,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>528637</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>452437</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7CD04C2-EBE5-40BF-BF23-B26A7E5483F7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>138112</xdr:colOff>
       <xdr:row>19</xdr:row>
@@ -9455,7 +9421,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9480,6 +9446,42 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01946DBB-D4B1-459E-B063-CE730D23F7A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>125225</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>112619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>49025</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>188819</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7CD04C2-EBE5-40BF-BF23-B26A7E5483F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9799,8 +9801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="V39" sqref="V39"/>
+    <sheetView tabSelected="1" topLeftCell="F32" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
